--- a/Test Data/FC_Gallery_RBUS_Repeaters_FIM_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_RBUS_Repeaters_FIM_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03837A43-574C-4137-BFBE-57E1C8750D94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E8AB6E-E593-44EF-9139-2C4A51BED50C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>Spain Market</t>
   </si>
   <si>
-    <t>NGC-3442/T1594/T1604/T1624</t>
-  </si>
-  <si>
     <t>Hungary Market</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>NGC-3443/T1927/T1945/T1959</t>
+  </si>
+  <si>
+    <t>NGC-3442/T1598/T1607/T1635</t>
   </si>
 </sst>
 </file>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43647536-06F2-42CF-84AC-84C63AE72968}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,7 +708,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -835,7 +835,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -905,7 +905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47237251-A16A-4CCB-A063-0BF789D4C3A6}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -952,7 +952,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/FC_Gallery_RBUS_Repeaters_FIM_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_RBUS_Repeaters_FIM_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E8AB6E-E593-44EF-9139-2C4A51BED50C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5C435B-AB08-4C90-88D7-5F8D1B53D54C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -661,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43647536-06F2-42CF-84AC-84C63AE72968}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6390FBE8-8B2F-40B2-89F1-3880C7EC958A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/FC_Gallery_RBUS_Repeaters_FIM_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_RBUS_Repeaters_FIM_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5C435B-AB08-4C90-88D7-5F8D1B53D54C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153C8B75-9E0D-46D1-8E1C-D3809284863F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>UK Market</t>
   </si>
   <si>
-    <t>NGC-/T1240/T1246/T1255</t>
-  </si>
-  <si>
     <t>Spain Market</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>NGC-3442/T1598/T1607/T1635</t>
+  </si>
+  <si>
+    <t>NGC-3003/T1240/T1246/T1255</t>
   </si>
 </sst>
 </file>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E633250-93FC-4A95-8297-DC7F9D0A64D2}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -686,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -708,7 +708,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -788,7 +788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6390FBE8-8B2F-40B2-89F1-3880C7EC958A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -835,7 +835,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -952,7 +952,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
